--- a/REVER_DailyTracker_20200918.xlsx
+++ b/REVER_DailyTracker_20200918.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947AB556-4F85-4813-9BF5-79DDD3CDA65F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7052AA2-0B60-4F12-A6DB-BE5E3179E9B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="17">
   <si>
     <t>No</t>
   </si>
@@ -76,6 +76,12 @@
   <si>
     <t xml:space="preserve">Regression testing on B2C ,B2B, Hayaai and Vastu shashtra site </t>
   </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>Testing and fixing Issue</t>
+  </si>
 </sst>
 </file>
 
@@ -84,7 +90,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +138,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -230,7 +250,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -300,6 +320,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -688,7 +715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -932,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -974,17 +1001,21 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="23"/>
+      <c r="B2" s="32">
+        <v>44092</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>16</v>
+      </c>
       <c r="E2" s="6"/>
       <c r="F2" s="7"/>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="15.75">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
+      <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
       <c r="D3" s="23"/>

--- a/REVER_DailyTracker_20200918.xlsx
+++ b/REVER_DailyTracker_20200918.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7052AA2-0B60-4F12-A6DB-BE5E3179E9B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5888317D-C3BB-43C0-9CAE-3E2FBA607229}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="19">
   <si>
     <t>No</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>Testing and fixing Issue</t>
+  </si>
+  <si>
+    <t>HAYAAI-B2B</t>
+  </si>
+  <si>
+    <t>signup corrections and table corrections</t>
   </si>
 </sst>
 </file>
@@ -610,15 +616,15 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="104.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="104.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -642,7 +648,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" s="24" customFormat="1" ht="28.9" customHeight="1">
+    <row r="2" spans="1:7" s="24" customFormat="1" ht="28.95" customHeight="1">
       <c r="A2" s="25"/>
       <c r="B2" s="26"/>
       <c r="C2" s="25"/>
@@ -719,15 +725,15 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="72.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="72.5546875" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -852,15 +858,15 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -959,19 +965,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -997,7 +1003,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75">
+    <row r="2" spans="1:7" ht="15.6">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1014,7 +1020,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75">
+    <row r="3" spans="1:7" ht="15.6">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
@@ -1082,15 +1088,15 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1189,19 +1195,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1230,10 +1236,18 @@
     <row r="2" spans="1:7">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
+      <c r="C2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7">
@@ -1304,15 +1318,15 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1404,15 +1418,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1515,15 +1529,15 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1626,15 +1640,15 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1737,15 +1751,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
